--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -174,6 +174,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>久暢公司(公開發行公司）</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
   </si>
   <si>
     <t>博仁建設公司(公開發行公 司）</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1311,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1336,13 +1348,22 @@
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1359,13 +1380,22 @@
       <c r="G2" s="2">
         <v>2400</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1382,13 +1412,22 @@
       <c r="G3" s="2">
         <v>28510</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1404,6 +1443,15 @@
       </c>
       <c r="G4" s="2">
         <v>250000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -1421,22 +1469,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -1447,13 +1495,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -1473,13 +1521,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1509,16 +1557,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1526,16 +1574,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1543,16 +1591,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1560,16 +1608,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1577,16 +1625,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1594,16 +1642,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1611,16 +1659,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1628,16 +1676,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1645,16 +1693,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1675,19 +1723,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1695,22 +1743,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1718,22 +1766,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1741,22 +1789,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1764,22 +1812,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1787,22 +1835,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -174,6 +174,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -186,10 +189,13 @@
     <t>久暢公司(公開發行公司）</t>
   </si>
   <si>
-    <t>久津實業公司（公開發行公 司）</t>
-  </si>
-  <si>
-    <t>博仁建設公司(公開發行公 司）</t>
+    <t>久津實業公司（公開發行公司）</t>
+  </si>
+  <si>
+    <t>博仁建設公司(公開發行公司）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-26</t>
@@ -1323,13 +1329,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1357,13 +1363,16 @@
       <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1381,21 +1390,24 @@
         <v>2400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2">
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1413,21 +1425,24 @@
         <v>28510</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2">
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1445,12 +1460,15 @@
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
         <v>665</v>
       </c>
     </row>
@@ -1469,22 +1487,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -1495,13 +1513,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -1521,13 +1539,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1557,16 +1575,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1574,16 +1592,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1591,16 +1609,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1608,16 +1626,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1625,16 +1643,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1642,16 +1660,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1659,16 +1677,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1676,16 +1694,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1693,16 +1711,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1723,19 +1741,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1743,22 +1761,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1766,22 +1784,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1789,22 +1807,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1812,22 +1830,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1835,22 +1853,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -177,6 +177,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -186,6 +189,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>久暢公司(公開發行公司）</t>
   </si>
   <si>
@@ -198,7 +207,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmp4c4f1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1329,13 +1344,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1366,13 +1381,22 @@
       <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1390,24 +1414,33 @@
         <v>2400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2">
         <v>665</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1425,24 +1458,33 @@
         <v>28510</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
         <v>665</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1460,16 +1502,25 @@
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2">
         <v>665</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1487,22 +1538,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -1513,13 +1564,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -1539,13 +1590,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1575,16 +1626,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1592,16 +1643,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1609,16 +1660,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1626,16 +1677,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1643,16 +1694,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1660,16 +1711,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1677,16 +1728,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1694,16 +1745,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1711,16 +1762,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1741,19 +1792,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1761,22 +1812,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1784,22 +1835,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1807,22 +1858,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1830,22 +1881,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1853,22 +1904,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -69,7 +69,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北富邦商業銀行城中分 行</t>
+    <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -81,7 +81,7 @@
     <t>陽信商業銀行立文分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司高 雄新庄仔郵局</t>
+    <t>中華郵政股份有限公司高雄新庄仔郵局</t>
   </si>
   <si>
     <t>大眾商業銀行大昌分行</t>
@@ -108,16 +108,16 @@
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
-    <t>花旗（台灣)商業銀行臺北 分行</t>
+    <t>花旗（台灣)商業銀行臺北分行</t>
   </si>
   <si>
     <t>臺灣銀行龍山分行</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行新竹分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司郵 政儲金匯業局</t>
+    <t>兆豐國際商業銀行新竹分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司郵政儲金匯業局</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -141,9 +141,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>新臺幣'</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -153,7 +150,7 @@
     <t>王崇儀</t>
   </si>
   <si>
-    <t>83，385</t>
+    <t>83385</t>
   </si>
   <si>
     <t>name</t>
@@ -231,16 +228,16 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>台灣工銀大眾基 金</t>
+    <t>台灣工銀大眾基金</t>
   </si>
   <si>
     <t>國泰全球貨幣</t>
   </si>
   <si>
-    <t>台灣工銀證券 投信公司</t>
-  </si>
-  <si>
-    <t>國泰證券投信 公司</t>
+    <t>台灣工銀證券投信公司</t>
+  </si>
+  <si>
+    <t>國泰證券投信公司</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -264,16 +261,16 @@
     <t>全球人壽</t>
   </si>
   <si>
-    <t>南山金福利21年期還本養老 壽險</t>
+    <t>南山金福利21年期還本養老壽險</t>
   </si>
   <si>
     <t>幸福人壽超值增額終身壽險</t>
   </si>
   <si>
-    <t>全球人壽全球104終身壽險 甲型</t>
-  </si>
-  <si>
-    <t>全球人壽全球104終身壽險 甲塑</t>
+    <t>全球人壽全球104終身壽險甲型</t>
+  </si>
+  <si>
+    <t>全球人壽全球104終身壽險甲塑</t>
   </si>
   <si>
     <t>全球人壽全球104终身壽險</t>
@@ -315,31 +312,31 @@
     <t>貸款</t>
   </si>
   <si>
-    <t>大眾商業銀行新生分行 臺北市中正區忠孝東路</t>
-  </si>
-  <si>
-    <t>幸福人壽保險股份有限公司 臺北市中正區忠孝西路</t>
-  </si>
-  <si>
-    <t>94年01月 06日</t>
-  </si>
-  <si>
-    <t>95年12月 25日</t>
-  </si>
-  <si>
-    <t>96年04月 12日</t>
-  </si>
-  <si>
-    <t>96年05月 28日</t>
-  </si>
-  <si>
-    <t>96年12月 11曰</t>
+    <t>大眾商業銀行新生分行臺北市中正區忠孝東路</t>
+  </si>
+  <si>
+    <t>幸福人壽保險股份有限公司臺北市中正區忠孝西路</t>
+  </si>
+  <si>
+    <t>94年01月06日</t>
+  </si>
+  <si>
+    <t>95年12月25日</t>
+  </si>
+  <si>
+    <t>96年04月12日</t>
+  </si>
+  <si>
+    <t>96年05月28日</t>
+  </si>
+  <si>
+    <t>96年12月11曰</t>
   </si>
   <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>-般貸款</t>
+    <t>般貸款</t>
   </si>
   <si>
     <t>一般貸款</t>
@@ -920,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -948,7 +945,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1151,7 +1148,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -1174,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1197,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -1262,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -1288,7 +1285,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1309,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1330,7 +1327,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1352,43 +1349,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1396,7 +1393,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1414,13 +1411,13 @@
         <v>2400</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -1429,7 +1426,7 @@
         <v>665</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="2">
         <v>79</v>
@@ -1440,7 +1437,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1458,13 +1455,13 @@
         <v>28510</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
@@ -1473,7 +1470,7 @@
         <v>665</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" s="2">
         <v>80</v>
@@ -1484,7 +1481,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1502,13 +1499,13 @@
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>7</v>
@@ -1517,7 +1514,7 @@
         <v>665</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2">
         <v>81</v>
@@ -1538,22 +1535,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -1564,13 +1561,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -1590,13 +1587,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1626,16 +1623,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1643,16 +1640,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1660,16 +1657,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1677,16 +1674,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1694,16 +1691,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1711,16 +1708,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1728,16 +1725,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1745,16 +1742,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1762,16 +1759,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1792,19 +1789,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1812,22 +1809,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1835,22 +1832,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1858,22 +1855,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1881,22 +1878,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1904,22 +1901,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,25 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t>VOLVO</t>
   </si>
@@ -54,24 +36,15 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敖明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -120,9 +93,6 @@
     <t>中華郵政股份有限公司郵政儲金匯業局</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -138,9 +108,6 @@
     <t>)舌期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -192,9 +159,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>久暢公司(公開發行公司）</t>
-  </si>
-  <si>
     <t>久津實業公司（公開發行公司）</t>
   </si>
   <si>
@@ -213,57 +177,33 @@
     <t>tmp4c4f1</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>台灣工銀大眾基金</t>
   </si>
   <si>
+    <t>台灣工銀證券投信公司</t>
+  </si>
+  <si>
     <t>國泰全球貨幣</t>
   </si>
   <si>
-    <t>台灣工銀證券投信公司</t>
-  </si>
-  <si>
     <t>國泰證券投信公司</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山金福利21年期還本養老壽險</t>
+  </si>
+  <si>
+    <t>年繳19280元</t>
+  </si>
+  <si>
     <t>幸福人壽</t>
   </si>
   <si>
     <t>全球人壽</t>
   </si>
   <si>
-    <t>南山金福利21年期還本養老壽險</t>
-  </si>
-  <si>
     <t>幸福人壽超值增額終身壽險</t>
   </si>
   <si>
@@ -276,9 +216,6 @@
     <t>全球人壽全球104终身壽險</t>
   </si>
   <si>
-    <t>年繳19280元</t>
-  </si>
-  <si>
     <t>年繳640891元</t>
   </si>
   <si>
@@ -291,36 +228,24 @@
     <t>年繳103305元</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>大眾商業銀行新生分行臺北市中正區忠孝東路</t>
+  </si>
+  <si>
+    <t>94年01月06日</t>
+  </si>
+  <si>
+    <t>購屋貸款</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
-    <t>大眾商業銀行新生分行臺北市中正區忠孝東路</t>
-  </si>
-  <si>
     <t>幸福人壽保險股份有限公司臺北市中正區忠孝西路</t>
   </si>
   <si>
-    <t>94年01月06日</t>
-  </si>
-  <si>
     <t>95年12月25日</t>
   </si>
   <si>
@@ -331,9 +256,6 @@
   </si>
   <si>
     <t>96年12月11曰</t>
-  </si>
-  <si>
-    <t>購屋貸款</t>
   </si>
   <si>
     <t>般貸款</t>
@@ -698,53 +620,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1">
+        <v>1986</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1986</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -762,575 +661,552 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>270</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>87</v>
+        <v>590953</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>590953</v>
+        <v>13653092</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>13653092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>15375</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>15375</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1563</v>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
+      <c r="G9" s="2">
+        <v>8938</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>8938</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>4370</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>8342</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>721</v>
+        <v>2313740</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>2313740</v>
+        <v>239978</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>239978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1972</v>
+        <v>136555</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>136555</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>29000</v>
+      </c>
       <c r="G18" s="2">
-        <v>33085</v>
+        <v>882615</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>29000</v>
+        <v>6235.38</v>
       </c>
       <c r="G19" s="2">
-        <v>882615</v>
+        <v>189773.79</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>6235.38</v>
+        <v>25.15</v>
       </c>
       <c r="G20" s="2">
-        <v>189773.79</v>
+        <v>766.62</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2">
-        <v>25.15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>766.62</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.41</v>
+      </c>
       <c r="G23" s="2">
-        <v>18</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>16.24</v>
+        <v>276538</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>276538</v>
+        <v>29682</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>29682</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>69</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
         <v>621933</v>
       </c>
     </row>
@@ -1341,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1349,174 +1225,130 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.24</v>
+        <v>2851</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>2400</v>
+        <v>28510</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>665</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>2851</v>
+        <v>25000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>28510</v>
+        <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>665</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>250000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="2">
-        <v>665</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="2">
         <v>81</v>
       </c>
     </row>
@@ -1527,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1535,76 +1367,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41051.2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>17.65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>724553.68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
-        <v>41051.2</v>
+        <v>551258</v>
       </c>
       <c r="F2" s="2">
-        <v>17.65</v>
+        <v>9.9894</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2">
-        <v>724553.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2">
-        <v>551258</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.9894</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2">
         <v>5506736.67</v>
       </c>
     </row>
@@ -1615,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1623,152 +1429,135 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1567,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1786,137 +1575,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1095155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>1095155</v>
+        <v>600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
-        <v>600000</v>
+        <v>1060000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
-        <v>1060000</v>
+        <v>500405</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2">
-        <v>500405</v>
+        <v>800820</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>129</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2">
-        <v>800820</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
   <si>
     <t>VOLVO</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>久暢公司(公開發行公司）</t>
   </si>
   <si>
     <t>久津實業公司（公開發行公司）</t>
@@ -620,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,6 +646,29 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1986</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -653,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -679,13 +705,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -695,18 +721,18 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>87</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -716,18 +742,18 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>590953</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -737,18 +763,18 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>13653092</v>
+        <v>590953</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -758,18 +784,18 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>13653092</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -779,18 +805,18 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>15375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -800,18 +826,18 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1563</v>
+        <v>15375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -820,19 +846,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
+      <c r="G8" s="2">
+        <v>1563</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -841,16 +867,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>8938</v>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -863,15 +889,15 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>4370</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -884,15 +910,15 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>8342</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -905,18 +931,18 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>721</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -926,18 +952,18 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>2313740</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -947,18 +973,18 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>239978</v>
+        <v>2313740</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -968,18 +994,18 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1972</v>
+        <v>239978</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
@@ -989,18 +1015,18 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>136555</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -1010,41 +1036,39 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>33085</v>
+        <v>136555</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
-        <v>29000</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>882615</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1053,18 +1077,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>6235.38</v>
+        <v>29000</v>
       </c>
       <c r="G19" s="2">
-        <v>189773.79</v>
+        <v>882615</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -1076,42 +1100,44 @@
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>25.15</v>
+        <v>6235.38</v>
       </c>
       <c r="G20" s="2">
-        <v>766.62</v>
+        <v>189773.79</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>25.15</v>
+      </c>
       <c r="G21" s="2">
-        <v>129</v>
+        <v>766.62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -1121,62 +1147,62 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
-        <v>0.41</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>16.24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="2">
-        <v>276538</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -1186,15 +1212,15 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>29682</v>
+        <v>276538</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -1207,6 +1233,27 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
+        <v>29682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
         <v>621933</v>
       </c>
     </row>
@@ -1217,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1266,7 +1313,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -1275,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>2851</v>
+        <v>0.24</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1284,16 +1331,16 @@
         <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>28510</v>
+        <v>2400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>1</v>
@@ -1302,15 +1349,15 @@
         <v>665</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
@@ -1319,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>25000</v>
+        <v>2851</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1328,16 +1375,16 @@
         <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>250000</v>
+        <v>28510</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
@@ -1346,9 +1393,53 @@
         <v>665</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>665</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2">
         <v>81</v>
       </c>
     </row>
@@ -1359,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1367,13 +1458,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>41051.2</v>
@@ -1390,27 +1481,53 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>41051.2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17.65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>724553.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2">
         <v>551258</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>9.9894</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
         <v>5506736.67</v>
       </c>
     </row>
@@ -1421,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1429,44 +1546,44 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1477,7 +1594,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>60</v>
@@ -1494,13 +1611,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -1511,10 +1628,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>63</v>
@@ -1523,41 +1640,58 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>114</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1575,114 +1709,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1">
         <v>1095155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1095155</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2">
-        <v>600000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
-        <v>1060000</v>
+        <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
-        <v>500405</v>
+        <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2">
-        <v>800820</v>
+        <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>129</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>800820</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>VOLVO</t>
   </si>
@@ -36,6 +75,18 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmp4c4f1</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
@@ -120,12 +171,6 @@
     <t>83385</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -138,27 +183,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>久暢公司(公開發行公司）</t>
   </si>
   <si>
@@ -169,15 +193,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-26</t>
-  </si>
-  <si>
-    <t>tmp4c4f1</t>
   </si>
   <si>
     <t>台灣工銀大眾基金</t>
@@ -623,53 +638,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1986</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>1986</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>665</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -687,16 +744,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -708,16 +765,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -729,16 +786,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -750,16 +807,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -771,16 +828,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -792,16 +849,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -813,16 +870,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -834,16 +891,16 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -855,20 +912,20 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -876,16 +933,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -897,16 +954,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -918,16 +975,16 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -939,16 +996,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -960,16 +1017,16 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -981,16 +1038,16 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1002,16 +1059,16 @@
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1023,16 +1080,16 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1044,16 +1101,16 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1065,16 +1122,16 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2">
         <v>29000</v>
@@ -1088,16 +1145,16 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
         <v>6235.38</v>
@@ -1111,16 +1168,16 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2">
         <v>25.15</v>
@@ -1134,16 +1191,16 @@
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1155,16 +1212,16 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1176,16 +1233,16 @@
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2">
         <v>0.41</v>
@@ -1199,16 +1256,16 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1220,16 +1277,16 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1241,16 +1298,16 @@
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1272,43 +1329,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1316,10 +1373,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>0.24</v>
@@ -1328,28 +1385,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>2400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <v>665</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2">
         <v>79</v>
@@ -1360,10 +1417,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>2851</v>
@@ -1372,28 +1429,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>28510</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2">
         <v>665</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2">
         <v>80</v>
@@ -1404,10 +1461,10 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>25000</v>
@@ -1416,28 +1473,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2">
         <v>665</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2">
         <v>81</v>
@@ -1458,13 +1515,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>41051.2</v>
@@ -1473,7 +1530,7 @@
         <v>17.65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1">
         <v>724553.68</v>
@@ -1484,13 +1541,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -1499,7 +1556,7 @@
         <v>17.65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>724553.68</v>
@@ -1510,13 +1567,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1525,7 +1582,7 @@
         <v>9.9894</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>5506736.67</v>
@@ -1546,16 +1603,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1563,16 +1620,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1580,16 +1637,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1597,16 +1654,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1614,16 +1671,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1631,16 +1688,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1648,16 +1705,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1665,16 +1722,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1682,16 +1739,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1709,22 +1766,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>1095155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1732,22 +1789,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1755,22 +1812,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1778,22 +1835,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1801,22 +1858,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1824,22 +1881,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -75,7 +75,7 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
+    <t>car</t>
   </si>
   <si>
     <t>normal</t>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -87,78 +87,90 @@
     <t>tmp4c4f1</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行左營分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行立文分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄新庄仔郵局</t>
+  </si>
+  <si>
+    <t>大眾商業銀行大昌分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行左營分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行新生分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行大和平分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行右昌分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行臺北分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行新竹分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司郵政儲金匯業局</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>)舌期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行左營分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行立文分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高雄新庄仔郵局</t>
-  </si>
-  <si>
-    <t>大眾商業銀行大昌分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行左營分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行新生分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行大和平分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行右昌分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行臺北分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行新竹分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司郵政儲金匯業局</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>)舌期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -168,19 +180,13 @@
     <t>王崇儀</t>
   </si>
   <si>
-    <t>83385</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t>久暢公司(公開發行公司）</t>
@@ -736,13 +742,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -753,565 +759,1097 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
+        <v>665</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>665</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>590953</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
+        <v>665</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>13653092</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
+        <v>665</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <v>665</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>15375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
+        <v>665</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1563</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
+        <v>665</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>83385</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2">
+        <v>665</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>8938</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2">
+        <v>665</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>4370</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
+        <v>665</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>8342</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2">
+        <v>665</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>721</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2">
+        <v>665</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>2313740</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
+        <v>665</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>239978</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2">
+        <v>665</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1972</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2">
+        <v>665</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>136555</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2">
+        <v>665</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>33085</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2">
+        <v>665</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>29000</v>
-      </c>
-      <c r="G19" s="2">
         <v>882615</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2">
+        <v>665</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>6235.38</v>
-      </c>
-      <c r="G20" s="2">
         <v>189773.79</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2">
+        <v>665</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>25.15</v>
-      </c>
-      <c r="G21" s="2">
         <v>766.62</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2">
+        <v>665</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2">
+        <v>665</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2">
+        <v>665</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="G24" s="2">
         <v>16.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2">
+        <v>665</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2">
         <v>276538</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2">
+        <v>665</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2">
         <v>29682</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2">
+        <v>665</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2">
         <v>621933</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2">
+        <v>665</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1335,16 +1873,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1373,7 +1911,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1385,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>2400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
@@ -1417,7 +1955,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1429,13 +1967,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>28510</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
@@ -1461,7 +1999,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1473,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
@@ -1515,13 +2053,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>41051.2</v>
@@ -1530,7 +2068,7 @@
         <v>17.65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1">
         <v>724553.68</v>
@@ -1541,13 +2079,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -1556,7 +2094,7 @@
         <v>17.65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>724553.68</v>
@@ -1567,13 +2105,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1582,7 +2120,7 @@
         <v>9.9894</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>5506736.67</v>
@@ -1603,16 +2141,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1620,16 +2158,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1637,16 +2175,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1654,16 +2192,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1671,16 +2209,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1688,16 +2226,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1705,16 +2243,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1722,16 +2260,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1739,16 +2277,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1766,22 +2304,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>1095155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1789,22 +2327,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1812,22 +2350,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1835,22 +2373,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1858,22 +2396,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1881,22 +2419,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -201,16 +201,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>台灣工銀大眾基金</t>
   </si>
   <si>
+    <t>國泰全球貨幣</t>
+  </si>
+  <si>
     <t>台灣工銀證券投信公司</t>
   </si>
   <si>
-    <t>國泰全球貨幣</t>
-  </si>
-  <si>
     <t>國泰證券投信公司</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2045,47 +2051,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1">
-        <v>41051.2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>17.65</v>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1">
-        <v>724553.68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>41051.2</v>
@@ -2099,8 +2126,29 @@
       <c r="H2" s="2">
         <v>724553.68</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2">
+        <v>665</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>92</v>
       </c>
@@ -2111,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -2124,6 +2172,27 @@
       </c>
       <c r="H3" s="2">
         <v>5506736.67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2">
+        <v>665</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2141,16 +2210,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2158,16 +2227,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2175,16 +2244,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2192,16 +2261,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2209,16 +2278,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2226,16 +2295,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2243,16 +2312,16 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2260,16 +2329,16 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2277,16 +2346,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2304,22 +2373,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>1095155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2327,22 +2396,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2350,22 +2419,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2373,22 +2442,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2396,22 +2465,22 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2419,22 +2488,22 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -219,21 +219,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>幸福人壽</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
     <t>南山金福利21年期還本養老壽險</t>
   </si>
   <si>
-    <t>年繳19280元</t>
-  </si>
-  <si>
-    <t>幸福人壽</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
     <t>幸福人壽超值增額終身壽險</t>
   </si>
   <si>
@@ -246,52 +246,52 @@
     <t>全球人壽全球104终身壽險</t>
   </si>
   <si>
-    <t>年繳640891元</t>
-  </si>
-  <si>
-    <t>年繳562185元</t>
-  </si>
-  <si>
-    <t>年繳165900元</t>
-  </si>
-  <si>
-    <t>年繳103305元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>貸款</t>
+  </si>
+  <si>
     <t>大眾商業銀行新生分行臺北市中正區忠孝東路</t>
   </si>
   <si>
+    <t>幸福人壽保險股份有限公司臺北市中正區忠孝西路</t>
+  </si>
+  <si>
     <t>94年01月06日</t>
   </si>
   <si>
+    <t>95年12月25日</t>
+  </si>
+  <si>
+    <t>96年04月12日</t>
+  </si>
+  <si>
+    <t>96年05月28日</t>
+  </si>
+  <si>
+    <t>96年12月11曰</t>
+  </si>
+  <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>貸款</t>
-  </si>
-  <si>
-    <t>幸福人壽保險股份有限公司臺北市中正區忠孝西路</t>
-  </si>
-  <si>
-    <t>95年12月25日</t>
-  </si>
-  <si>
-    <t>96年04月12日</t>
-  </si>
-  <si>
-    <t>96年05月28日</t>
-  </si>
-  <si>
-    <t>96年12月11曰</t>
-  </si>
-  <si>
     <t>般貸款</t>
   </si>
   <si>
     <t>一般貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2202,49 +2202,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>665</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -2255,13 +2291,31 @@
       <c r="E3" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2">
+        <v>665</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
@@ -2270,15 +2324,33 @@
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2">
+        <v>665</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>72</v>
@@ -2287,15 +2359,33 @@
         <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2">
+        <v>665</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
@@ -2304,15 +2394,33 @@
         <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2">
+        <v>665</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
@@ -2321,15 +2429,33 @@
         <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>665</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>72</v>
@@ -2338,15 +2464,33 @@
         <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2">
+        <v>665</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>74</v>
@@ -2355,7 +2499,25 @@
         <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2">
+        <v>665</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2365,38 +2527,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1095155</v>
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -2408,102 +2591,207 @@
         <v>1095155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>665</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
+        <v>665</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>1060000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
+        <v>665</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>500405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
+        <v>665</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>800820</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
+        <v>665</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
+++ b/legislator/property/output/normal/黃昭順_2012-04-26_財產申報表_tmp4c4f1.xlsx
@@ -243,7 +243,7 @@
     <t>全球人壽全球104終身壽險甲塑</t>
   </si>
   <si>
-    <t>全球人壽全球104终身壽險</t>
+    <t>全球人壽全球104终身壽險甲型</t>
   </si>
   <si>
     <t>insurance</t>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
@@ -1953,12 +1953,12 @@
         <v>21</v>
       </c>
       <c r="N2" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>57</v>
@@ -1997,12 +1997,12 @@
         <v>21</v>
       </c>
       <c r="N3" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>58</v>
@@ -2041,7 +2041,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
@@ -2145,12 +2145,12 @@
         <v>21</v>
       </c>
       <c r="O2" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
@@ -2192,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="O3" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>67</v>
@@ -2272,12 +2272,12 @@
         <v>21</v>
       </c>
       <c r="K2" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>68</v>
@@ -2307,12 +2307,12 @@
         <v>21</v>
       </c>
       <c r="K3" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>68</v>
@@ -2342,12 +2342,12 @@
         <v>21</v>
       </c>
       <c r="K4" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
@@ -2377,12 +2377,12 @@
         <v>21</v>
       </c>
       <c r="K5" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>69</v>
@@ -2412,12 +2412,12 @@
         <v>21</v>
       </c>
       <c r="K6" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>69</v>
@@ -2447,12 +2447,12 @@
         <v>21</v>
       </c>
       <c r="K7" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
@@ -2482,12 +2482,12 @@
         <v>21</v>
       </c>
       <c r="K8" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>69</v>
@@ -2517,7 +2517,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>78</v>
@@ -2615,12 +2615,12 @@
         <v>21</v>
       </c>
       <c r="N2" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>79</v>
@@ -2659,12 +2659,12 @@
         <v>21</v>
       </c>
       <c r="N3" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>79</v>
@@ -2703,12 +2703,12 @@
         <v>21</v>
       </c>
       <c r="N4" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>79</v>
@@ -2747,12 +2747,12 @@
         <v>21</v>
       </c>
       <c r="N5" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>79</v>
@@ -2791,7 +2791,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
